--- a/medicine/Pharmacie/Pharmacologue/Pharmacologue.xlsx
+++ b/medicine/Pharmacie/Pharmacologue/Pharmacologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pharmacologue (ou pharmacologiste) est un pharmacien, un médecin ou tout scientifique spécialisé en pharmacologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Champs de connaissances</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pharmacologue scientifique est chargé de connaître et de comprendre les interactions entre les molécules chimiques ayant une activité biologique et un organisme vivant. Il doit également posséder des connaissances en biochimie, en biologie, en biostatistique, en physiologie.  Les pharmacologues scientifiques travaillent en laboratoire et sur des modèles animaux.
 Les Pharmacologues médecins et pharmaciens sont surtout impliqués dans les études cliniques et l'évaluation des thérapeutiques. L'internat de médecine permet à un médecin de se spécialiser en Pharmacologie-Toxicologie. L'internat de pharmacie permet à un pharmacien de se spécialiser également en Pharmacologie-Toxicologie.
@@ -546,7 +560,9 @@
           <t>Lieu de travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pharmacologues peuvent travailler dans les endroits suivants :
 Faculté de médecine
